--- a/stock_predictor_ai/data/company_sentiment_ready/DAL_sentiment.xlsx
+++ b/stock_predictor_ai/data/company_sentiment_ready/DAL_sentiment.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4616"/>
+  <dimension ref="A1:B4623"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -37369,6 +37369,62 @@
         <v>0</v>
       </c>
     </row>
+    <row r="4617">
+      <c r="A4617" s="2" t="n">
+        <v>45905</v>
+      </c>
+      <c r="B4617" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4618">
+      <c r="A4618" s="2" t="n">
+        <v>45908</v>
+      </c>
+      <c r="B4618" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4619">
+      <c r="A4619" s="2" t="n">
+        <v>45909</v>
+      </c>
+      <c r="B4619" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4620">
+      <c r="A4620" s="2" t="n">
+        <v>45910</v>
+      </c>
+      <c r="B4620" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4621">
+      <c r="A4621" s="2" t="n">
+        <v>45911</v>
+      </c>
+      <c r="B4621" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4622">
+      <c r="A4622" s="2" t="n">
+        <v>45912</v>
+      </c>
+      <c r="B4622" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4623">
+      <c r="A4623" s="2" t="n">
+        <v>45915</v>
+      </c>
+      <c r="B4623" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
